--- a/jpa2-backend/src/main/resources/excel/address.xlsx
+++ b/jpa2-backend/src/main/resources/excel/address.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>${msg.getProperty('address_id')}</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>${msg.getProperty('search_criteria')}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('search_full_text')}</t>
+  </si>
+  <si>
+    <t>${search_full_text}</t>
   </si>
   <si>
     <t>${streetName}</t>
@@ -495,18 +501,26 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
+      <c r="B6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/jpa2-backend/src/main/resources/excel/address.xlsx
+++ b/jpa2-backend/src/main/resources/excel/address.xlsx
@@ -18,63 +18,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+  <si>
+    <t>${msg.getProperty('address_street')}</t>
+  </si>
+  <si>
+    <t>${address.street}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('address_zipCode')}</t>
+  </si>
+  <si>
+    <t>${address.zipCode}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('address_city')}</t>
+  </si>
+  <si>
+    <t>${address.city}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('address_country')}</t>
+  </si>
+  <si>
+    <t>${address.country}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('search_date')}</t>
+  </si>
+  <si>
+    <t>${search_date}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('search_by')}</t>
+  </si>
+  <si>
+    <t>${search_by}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('search_nb_results')}</t>
+  </si>
+  <si>
+    <t>${search_nb_results}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('search_criteria')}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('search_full_text')}</t>
+  </si>
+  <si>
+    <t>${search_full_text}</t>
+  </si>
   <si>
     <t>${msg.getProperty('address_id')}</t>
   </si>
   <si>
-    <t>${address.id}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('address_streetName')}</t>
-  </si>
-  <si>
-    <t>${address.streetName}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('address_city')}</t>
-  </si>
-  <si>
-    <t>${address.city}</t>
+    <t>${id}</t>
+  </si>
+  <si>
+    <t>${street}</t>
+  </si>
+  <si>
+    <t>${zipCode}</t>
+  </si>
+  <si>
+    <t>${city}</t>
+  </si>
+  <si>
+    <t>${country}</t>
   </si>
   <si>
     <t>${msg.getProperty('address_version')}</t>
   </si>
   <si>
-    <t>${address.version}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('search_date')}</t>
-  </si>
-  <si>
-    <t>${search_date}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('search_by')}</t>
-  </si>
-  <si>
-    <t>${search_by}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('search_nb_results')}</t>
-  </si>
-  <si>
-    <t>${search_nb_results}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('search_criteria')}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('search_full_text')}</t>
-  </si>
-  <si>
-    <t>${search_full_text}</t>
-  </si>
-  <si>
-    <t>${streetName}</t>
-  </si>
-  <si>
-    <t>${city}</t>
+    <t>${version}</t>
   </si>
 </sst>
 </file>
@@ -509,18 +527,50 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
